--- a/movies_pivot_report.xlsx
+++ b/movies_pivot_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barna\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC64D97E-5E39-4A8D-B08B-5AD160E6016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00947D2D-D194-4BE2-A62A-00A640089693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="168">
   <si>
     <t>movie_id</t>
   </si>
@@ -544,136 +544,22 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3 Idiots</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Shawshank Redemption</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Avengers: Endgame</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War</t>
-  </si>
-  <si>
-    <t>Baahubali: The Beginning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bajirao Mastani </t>
-  </si>
-  <si>
-    <t>Bajrangi Bhaijaan</t>
-  </si>
-  <si>
-    <t>Captain America: The First Avenger</t>
-  </si>
-  <si>
-    <t>Captain America: The Winter Soldier</t>
-  </si>
-  <si>
-    <t>Dilwale Dulhania Le Jayenge</t>
-  </si>
-  <si>
-    <t>Doctor Strange in the Multiverse of Madness</t>
-  </si>
-  <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>Inception</t>
-  </si>
-  <si>
-    <t>Interstellar</t>
-  </si>
-  <si>
-    <t>It's a Wonderful Life</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>K.G.F: Chapter 2</t>
-  </si>
-  <si>
-    <t>Kabhi Khushi Kabhie Gham</t>
-  </si>
-  <si>
-    <t>Munna Bhai M.B.B.S.</t>
-  </si>
-  <si>
-    <t>Parasite</t>
-  </si>
-  <si>
-    <t>Pather Panchali</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>Pushpa: The Rise - Part 1</t>
-  </si>
-  <si>
-    <t>Race 3</t>
-  </si>
-  <si>
-    <t>RRR</t>
-  </si>
-  <si>
-    <t>Sanju</t>
-  </si>
-  <si>
-    <t>Schindler's List</t>
-  </si>
-  <si>
-    <t>Shershaah</t>
-  </si>
-  <si>
-    <t>Sholay</t>
-  </si>
-  <si>
-    <t>Taare Zameen Par</t>
-  </si>
-  <si>
-    <t>The Dark Knight</t>
-  </si>
-  <si>
-    <t>The Godfather</t>
-  </si>
-  <si>
-    <t>The Kashmir Files</t>
-  </si>
-  <si>
-    <t>The Pursuit of Happyness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thor: Love and Thunder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thor: Ragnarok </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thor: The Dark World </t>
-  </si>
-  <si>
-    <t>Titanic</t>
-  </si>
-  <si>
-    <t>Budget USD mi</t>
-  </si>
-  <si>
     <t>Top Grossing Movies</t>
   </si>
   <si>
     <t>Revenue USD Mi</t>
   </si>
   <si>
-    <t xml:space="preserve">Profit USD </t>
-  </si>
-  <si>
-    <t>Average of imdb_rating</t>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Government of West Bengal</t>
+  </si>
+  <si>
+    <t>Hombale Films</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -738,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -749,7 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1913,11 +1798,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8D5DBF7-D11B-4ACB-ACC3-54010EF25BBE}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:E45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:AA30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="40">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="39">
         <item x="10"/>
         <item x="23"/>
         <item x="36"/>
@@ -1957,44 +1842,149 @@
         <item x="29"/>
         <item x="26"/>
         <item x="30"/>
-        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="25">
+        <item x="22"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="5"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="22">
+        <item x="20"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="8"/>
         <item x="0"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="15"/>
         <item x="1"/>
-        <item t="default"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="4"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="2"/>
-    <field x="1"/>
+    <field x="5"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="26">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="5"/>
@@ -2009,144 +1999,123 @@
       <x v="10"/>
     </i>
     <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
       <x v="17"/>
     </i>
     <i r="1">
       <x v="18"/>
     </i>
     <i r="1">
-      <x v="19"/>
+      <x v="20"/>
     </i>
     <i r="1">
       <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="-2"/>
+    <field x="3"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="26">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="4">
-    <dataField name="Budget USD mi" fld="16" baseField="2" baseItem="0" numFmtId="166"/>
+  <dataFields count="1">
     <dataField name="Revenue USD Mi" fld="17" baseField="2" baseItem="0" numFmtId="166"/>
-    <dataField name="Profit USD " fld="19" baseField="2" baseItem="0" numFmtId="166"/>
-    <dataField name="Average of imdb_rating" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2477,745 +2446,1098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E631543D-7FAA-42BC-B696-5E527A0B0276}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4">
+        <v>1946</v>
+      </c>
+      <c r="C4">
+        <v>1955</v>
+      </c>
+      <c r="D4">
+        <v>1972</v>
+      </c>
+      <c r="E4">
+        <v>1975</v>
+      </c>
+      <c r="F4">
+        <v>1993</v>
+      </c>
+      <c r="G4">
+        <v>1994</v>
+      </c>
+      <c r="H4">
+        <v>1995</v>
+      </c>
+      <c r="I4">
+        <v>1997</v>
+      </c>
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4">
+        <v>2001</v>
+      </c>
+      <c r="L4">
+        <v>2003</v>
+      </c>
+      <c r="M4">
+        <v>2006</v>
+      </c>
+      <c r="N4">
+        <v>2007</v>
+      </c>
+      <c r="O4">
+        <v>2008</v>
+      </c>
+      <c r="P4">
+        <v>2009</v>
+      </c>
+      <c r="Q4">
+        <v>2010</v>
+      </c>
+      <c r="R4">
+        <v>2011</v>
+      </c>
+      <c r="S4">
+        <v>2013</v>
+      </c>
+      <c r="T4">
+        <v>2014</v>
+      </c>
+      <c r="U4">
+        <v>2015</v>
+      </c>
+      <c r="V4">
+        <v>2017</v>
+      </c>
+      <c r="W4">
+        <v>2018</v>
+      </c>
+      <c r="X4">
+        <v>2019</v>
+      </c>
+      <c r="Y4">
+        <v>2021</v>
+      </c>
+      <c r="Z4">
+        <v>2022</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
+        <v>2847</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>73.3</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6">
+        <v>307.10000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>370.6</v>
+      </c>
+      <c r="S10" s="6">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="T10" s="6">
+        <v>714.4</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6">
+        <v>854</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2048</v>
+      </c>
+      <c r="X10" s="6">
+        <v>2798</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6">
+        <v>1624.8</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>9054.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6">
+        <v>263.10000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>291</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>2202</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>1006</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>1368.2</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <v>460.5</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6">
+        <v>1828.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
+        <v>701.8</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6">
+        <v>701.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
-        <v>232.875</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1011.3625</v>
-      </c>
-      <c r="D4" s="7">
-        <v>778.48749999999995</v>
-      </c>
-      <c r="E4" s="6">
-        <v>7.6823529411764699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="7">
-        <v>6.875</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6">
+        <v>11.875</v>
+      </c>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6">
+        <v>28.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6">
+        <v>150</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6">
+        <v>156.25</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6">
+        <v>45</v>
+      </c>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
+        <v>16.875</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6">
+        <v>43.75</v>
+      </c>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6">
+        <v>60.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6">
+        <v>146.125</v>
+      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6">
+        <v>38.75</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6">
+        <v>184.875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="7">
-        <v>43.125</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="7">
-        <v>22.5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>81.25</v>
-      </c>
-      <c r="D6" s="7">
-        <v>58.75</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="7">
-        <v>17.5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43.75</v>
-      </c>
-      <c r="D7" s="7">
-        <v>26.25</v>
-      </c>
-      <c r="E7" s="6">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="7">
-        <v>11.25</v>
-      </c>
-      <c r="C8" s="7">
-        <v>146.125</v>
-      </c>
-      <c r="D8" s="7">
-        <v>134.875</v>
-      </c>
-      <c r="E8" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
+        <v>106.75</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6">
+        <v>73.75</v>
+      </c>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <v>5.125</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>25</v>
       </c>
-      <c r="D9" s="7">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>156.25</v>
-      </c>
-      <c r="D10" s="7">
-        <v>143.75</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="7">
-        <v>4.875</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6">
+        <v>42.612499999999997</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>42.612499999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="6">
+        <v>291</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>1368.2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>73.3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>25</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2202</v>
+      </c>
+      <c r="J30" s="6">
+        <v>460.5</v>
+      </c>
+      <c r="K30" s="6">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
-        <v>12.125</v>
-      </c>
-      <c r="E11" s="6">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="L30" s="6">
         <v>5.125</v>
       </c>
-      <c r="D12" s="7">
-        <v>3.875</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="E13" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10.625</v>
-      </c>
-      <c r="C14" s="7">
-        <v>106.75</v>
-      </c>
-      <c r="D14" s="7">
-        <v>96.125</v>
-      </c>
-      <c r="E14" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="7">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7">
-        <v>45</v>
-      </c>
-      <c r="D15" s="7">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="7">
-        <v>22.5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>38.75</v>
-      </c>
-      <c r="D16" s="7">
-        <v>16.25</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="7">
-        <v>68.75</v>
-      </c>
-      <c r="C17" s="7">
-        <v>150</v>
-      </c>
-      <c r="D17" s="7">
-        <v>81.25</v>
-      </c>
-      <c r="E17" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C18" s="7">
-        <v>73.75</v>
-      </c>
-      <c r="D18" s="7">
-        <v>61.25</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="7">
-        <v>6.25</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11.875</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5.625</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="M30" s="6">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="N30" s="6">
         <v>16.875</v>
       </c>
-      <c r="D21" s="7">
-        <v>15.375</v>
-      </c>
-      <c r="E21" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3.125</v>
-      </c>
-      <c r="C22" s="7">
-        <v>42.612499999999997</v>
-      </c>
-      <c r="D22" s="7">
-        <v>39.487499999999997</v>
-      </c>
-      <c r="E22" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3069.58</v>
-      </c>
-      <c r="C23" s="7">
-        <v>18577.900000000001</v>
-      </c>
-      <c r="D23" s="7">
-        <v>15508.32</v>
-      </c>
-      <c r="E23" s="6">
-        <v>8.1619047619047613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="7">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7">
-        <v>73.3</v>
-      </c>
-      <c r="D24" s="7">
-        <v>48.3</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="7">
-        <v>237</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2847</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2610</v>
-      </c>
-      <c r="E25" s="6">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="7">
-        <v>400</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2798</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2398</v>
-      </c>
-      <c r="E26" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="7">
-        <v>400</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2048</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1648</v>
-      </c>
-      <c r="E27" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="7">
-        <v>216.7</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="O30" s="6">
+        <v>1006</v>
+      </c>
+      <c r="P30" s="6">
+        <v>2897</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6">
         <v>370.6</v>
       </c>
-      <c r="D28" s="7">
-        <v>153.9</v>
-      </c>
-      <c r="E28" s="6">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="7">
-        <v>177</v>
-      </c>
-      <c r="C29" s="7">
-        <v>714.4</v>
-      </c>
-      <c r="D29" s="7">
-        <v>537.4</v>
-      </c>
-      <c r="E29" s="6">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="7">
-        <v>200</v>
-      </c>
-      <c r="C30" s="7">
-        <v>954.8</v>
-      </c>
-      <c r="D30" s="7">
-        <v>754.8</v>
-      </c>
-      <c r="E30" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="7">
-        <v>103</v>
-      </c>
-      <c r="C31" s="7">
-        <v>460.5</v>
-      </c>
-      <c r="D31" s="7">
-        <v>357.5</v>
-      </c>
-      <c r="E31" s="6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="7">
-        <v>165</v>
-      </c>
-      <c r="C33" s="7">
-        <v>701.8</v>
-      </c>
-      <c r="D33" s="7">
-        <v>536.79999999999995</v>
-      </c>
-      <c r="E33" s="6">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="7">
-        <v>3.18</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="E34" s="6">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="7">
-        <v>63</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1046</v>
-      </c>
-      <c r="D35" s="7">
-        <v>983</v>
-      </c>
-      <c r="E35" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="7">
-        <v>15.5</v>
-      </c>
-      <c r="C36" s="7">
-        <v>263.10000000000002</v>
-      </c>
-      <c r="D36" s="7">
-        <v>247.6</v>
-      </c>
-      <c r="E36" s="6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="7">
-        <v>22</v>
-      </c>
-      <c r="C37" s="7">
-        <v>322.2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>300.2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="7">
-        <v>185</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1006</v>
-      </c>
-      <c r="D38" s="7">
-        <v>821</v>
-      </c>
-      <c r="E38" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="C39" s="7">
-        <v>291</v>
-      </c>
-      <c r="D39" s="7">
-        <v>283.8</v>
-      </c>
-      <c r="E39" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="7">
-        <v>55</v>
-      </c>
-      <c r="C40" s="7">
-        <v>307.10000000000002</v>
-      </c>
-      <c r="D40" s="7">
-        <v>252.1</v>
-      </c>
-      <c r="E40" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41" s="7">
-        <v>250</v>
-      </c>
-      <c r="C41" s="7">
-        <v>670</v>
-      </c>
-      <c r="D41" s="7">
-        <v>420</v>
-      </c>
-      <c r="E41" s="6">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="7">
-        <v>180</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="S30" s="6">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="T30" s="6">
+        <v>1522.9499999999998</v>
+      </c>
+      <c r="U30" s="6">
+        <v>271.125</v>
+      </c>
+      <c r="V30" s="6">
         <v>854</v>
       </c>
-      <c r="D42" s="7">
-        <v>674</v>
-      </c>
-      <c r="E42" s="6">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="7">
-        <v>165</v>
-      </c>
-      <c r="C43" s="7">
-        <v>644.79999999999995</v>
-      </c>
-      <c r="D43" s="7">
-        <v>479.8</v>
-      </c>
-      <c r="E43" s="6">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="7">
-        <v>200</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2202</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2002</v>
-      </c>
-      <c r="E44" s="6">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="7">
-        <v>3302.4549999999995</v>
-      </c>
-      <c r="C45" s="7">
-        <v>19589.262500000001</v>
-      </c>
-      <c r="D45" s="7">
-        <v>16286.807499999999</v>
-      </c>
-      <c r="E45" s="6">
-        <v>7.9473684210526319</v>
+      <c r="W30" s="6">
+        <v>2160.5</v>
+      </c>
+      <c r="X30" s="6">
+        <v>3061.1</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>56.875</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>1973.6624999999999</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>19589.262500000004</v>
       </c>
     </row>
   </sheetData>
